--- a/example_data/production/hp-input.xlsx
+++ b/example_data/production/hp-input.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -491,7 +491,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>2.5</v>
+        <v>0.98</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>1000</v>

--- a/example_data/production/hp-input.xlsx
+++ b/example_data/production/hp-input.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t xml:space="preserve">block_identifier</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t xml:space="preserve">heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2</t>
   </si>
   <si>
     <t xml:space="preserve">Explanation of the data columns in Sheet1:</t>
@@ -427,7 +430,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -495,6 +498,15 @@
       </c>
       <c r="G2" s="1" t="n">
         <v>1000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,18 +802,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6"/>
     </row>
@@ -818,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6"/>
     </row>
@@ -827,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -836,10 +848,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,10 +859,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,7 +870,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7"/>
     </row>
@@ -867,10 +879,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,7 +890,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7"/>
     </row>
@@ -887,10 +899,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,10 +910,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
